--- a/Model/BayesLSTM/Univariate/result/Manufacturing/CHN.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Manufacturing/CHN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>31.54570579528809</v>
+        <v>31.93074035644531</v>
       </c>
       <c r="C2" t="n">
-        <v>30.67454719543457</v>
+        <v>30.24025535583496</v>
       </c>
       <c r="D2" t="n">
-        <v>32.41686630249023</v>
+        <v>33.6212272644043</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>31.40658950805664</v>
+        <v>31.9754753112793</v>
       </c>
       <c r="C3" t="n">
-        <v>30.18910980224609</v>
+        <v>29.94725036621094</v>
       </c>
       <c r="D3" t="n">
-        <v>32.62406921386719</v>
+        <v>34.00370025634766</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>31.34766006469727</v>
+        <v>31.78055763244629</v>
       </c>
       <c r="C4" t="n">
-        <v>30.10526084899902</v>
+        <v>29.7186164855957</v>
       </c>
       <c r="D4" t="n">
-        <v>32.59005737304688</v>
+        <v>33.84249877929688</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>31.37660217285156</v>
+        <v>31.89375305175781</v>
       </c>
       <c r="C5" t="n">
-        <v>29.98881530761719</v>
+        <v>29.63507270812988</v>
       </c>
       <c r="D5" t="n">
-        <v>32.76438903808594</v>
+        <v>34.15243148803711</v>
       </c>
     </row>
     <row r="6">
@@ -519,83 +519,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>31.31390762329102</v>
+        <v>31.75732040405273</v>
       </c>
       <c r="C6" t="n">
-        <v>29.9631233215332</v>
+        <v>29.81703186035156</v>
       </c>
       <c r="D6" t="n">
-        <v>32.66469192504883</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="n">
-        <v>31.23866844177246</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30.01078987121582</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32.46654891967773</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="n">
-        <v>31.29570960998535</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30.07210350036621</v>
-      </c>
-      <c r="D8" t="n">
-        <v>32.51931762695312</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="n">
-        <v>31.2962760925293</v>
-      </c>
-      <c r="C9" t="n">
-        <v>30.0474681854248</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32.54508209228516</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B10" t="n">
-        <v>31.1663818359375</v>
-      </c>
-      <c r="C10" t="n">
-        <v>30.40163040161133</v>
-      </c>
-      <c r="D10" t="n">
-        <v>31.93113327026367</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B11" t="n">
-        <v>31.43204689025879</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30.56746292114258</v>
-      </c>
-      <c r="D11" t="n">
-        <v>32.296630859375</v>
+        <v>33.69760894775391</v>
       </c>
     </row>
   </sheetData>
@@ -641,72 +571,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>30.67114009857178</v>
+        <v>31.6208438873291</v>
       </c>
       <c r="C2" t="n">
-        <v>30.01137854779419</v>
+        <v>29.4421215057373</v>
       </c>
       <c r="D2" t="n">
-        <v>31.33090164934936</v>
+        <v>33.79956817626953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>31.66426639556885</v>
+        <v>31.75086975097656</v>
       </c>
       <c r="C3" t="n">
-        <v>30.28071265319645</v>
+        <v>29.07867431640625</v>
       </c>
       <c r="D3" t="n">
-        <v>33.04782013794125</v>
+        <v>34.42306518554688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>31.57864818572998</v>
+        <v>31.67252540588379</v>
       </c>
       <c r="C4" t="n">
-        <v>30.38997582267194</v>
+        <v>29.58579635620117</v>
       </c>
       <c r="D4" t="n">
-        <v>32.76732054878802</v>
+        <v>33.75925445556641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>31.14446601867676</v>
+        <v>31.44255447387695</v>
       </c>
       <c r="C5" t="n">
-        <v>30.51891191497729</v>
+        <v>30.44786262512207</v>
       </c>
       <c r="D5" t="n">
-        <v>31.77002012237623</v>
+        <v>32.4372444152832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>31.75582637786865</v>
+        <v>31.52211380004883</v>
       </c>
       <c r="C6" t="n">
-        <v>30.86729032637104</v>
+        <v>30.29092788696289</v>
       </c>
       <c r="D6" t="n">
-        <v>32.64436242936626</v>
+        <v>32.75329971313477</v>
       </c>
     </row>
   </sheetData>
@@ -755,13 +685,13 @@
         <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>32.68567657470703</v>
+        <v>29.60149574279785</v>
       </c>
       <c r="C2" t="n">
-        <v>31.7708854675293</v>
+        <v>28.78529357910156</v>
       </c>
       <c r="D2" t="n">
-        <v>33.60046768188477</v>
+        <v>30.41769790649414</v>
       </c>
     </row>
     <row r="3">
@@ -769,13 +699,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>32.1578254699707</v>
+        <v>29.39991760253906</v>
       </c>
       <c r="C3" t="n">
-        <v>30.85508918762207</v>
+        <v>28.53954696655273</v>
       </c>
       <c r="D3" t="n">
-        <v>33.46056365966797</v>
+        <v>30.26028823852539</v>
       </c>
     </row>
     <row r="4">
@@ -783,13 +713,13 @@
         <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>32.11842727661133</v>
+        <v>29.39973449707031</v>
       </c>
       <c r="C4" t="n">
-        <v>30.8018970489502</v>
+        <v>28.66075325012207</v>
       </c>
       <c r="D4" t="n">
-        <v>33.43495941162109</v>
+        <v>30.13871574401855</v>
       </c>
     </row>
     <row r="5">
@@ -797,13 +727,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>32.3784065246582</v>
+        <v>29.39507484436035</v>
       </c>
       <c r="C5" t="n">
-        <v>31.07693290710449</v>
+        <v>28.68164253234863</v>
       </c>
       <c r="D5" t="n">
-        <v>33.67988204956055</v>
+        <v>30.10850715637207</v>
       </c>
     </row>
     <row r="6">
@@ -811,13 +741,13 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>32.46024322509766</v>
+        <v>29.5758171081543</v>
       </c>
       <c r="C6" t="n">
-        <v>31.28369140625</v>
+        <v>28.69381523132324</v>
       </c>
       <c r="D6" t="n">
-        <v>33.63679504394531</v>
+        <v>30.45781898498535</v>
       </c>
     </row>
     <row r="7">
@@ -825,13 +755,13 @@
         <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>32.30044937133789</v>
+        <v>29.51094436645508</v>
       </c>
       <c r="C7" t="n">
-        <v>30.88657760620117</v>
+        <v>28.36928558349609</v>
       </c>
       <c r="D7" t="n">
-        <v>33.71432113647461</v>
+        <v>30.65260314941406</v>
       </c>
     </row>
     <row r="8">
@@ -839,13 +769,13 @@
         <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>32.22690963745117</v>
+        <v>29.51507186889648</v>
       </c>
       <c r="C8" t="n">
-        <v>30.7783088684082</v>
+        <v>28.12495422363281</v>
       </c>
       <c r="D8" t="n">
-        <v>33.67551040649414</v>
+        <v>30.90518951416016</v>
       </c>
     </row>
     <row r="9">
@@ -853,13 +783,13 @@
         <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>32.4608154296875</v>
+        <v>29.64244651794434</v>
       </c>
       <c r="C9" t="n">
-        <v>31.48369598388672</v>
+        <v>28.52370452880859</v>
       </c>
       <c r="D9" t="n">
-        <v>33.43793487548828</v>
+        <v>30.76118850708008</v>
       </c>
     </row>
     <row r="10">
@@ -867,13 +797,13 @@
         <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>32.39050674438477</v>
+        <v>29.6839485168457</v>
       </c>
       <c r="C10" t="n">
-        <v>30.87400245666504</v>
+        <v>28.07615661621094</v>
       </c>
       <c r="D10" t="n">
-        <v>33.90700912475586</v>
+        <v>31.29174041748047</v>
       </c>
     </row>
     <row r="11">
@@ -881,13 +811,13 @@
         <v>2021</v>
       </c>
       <c r="B11" t="n">
-        <v>32.64421081542969</v>
+        <v>29.65476989746094</v>
       </c>
       <c r="C11" t="n">
-        <v>31.43104934692383</v>
+        <v>28.74709510803223</v>
       </c>
       <c r="D11" t="n">
-        <v>33.85737228393555</v>
+        <v>30.56244468688965</v>
       </c>
     </row>
   </sheetData>
@@ -936,13 +866,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>30.03068332672119</v>
+        <v>31.26168899536133</v>
       </c>
       <c r="C2" t="n">
-        <v>29.43403659116285</v>
+        <v>30.54643227008898</v>
       </c>
       <c r="D2" t="n">
-        <v>30.62733006227953</v>
+        <v>31.97694572063368</v>
       </c>
     </row>
     <row r="3">
@@ -950,13 +880,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>30.90356884002686</v>
+        <v>29.76288948059082</v>
       </c>
       <c r="C3" t="n">
-        <v>29.71705809922049</v>
+        <v>28.57270884897709</v>
       </c>
       <c r="D3" t="n">
-        <v>32.09007958083322</v>
+        <v>30.95307011220455</v>
       </c>
     </row>
     <row r="4">
@@ -964,13 +894,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>31.99840221405029</v>
+        <v>31.25207347869873</v>
       </c>
       <c r="C4" t="n">
-        <v>30.74027047260683</v>
+        <v>29.76540060283416</v>
       </c>
       <c r="D4" t="n">
-        <v>33.25653395549376</v>
+        <v>32.7387463545633</v>
       </c>
     </row>
     <row r="5">
@@ -978,13 +908,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>31.74876232147217</v>
+        <v>32.52030963897705</v>
       </c>
       <c r="C5" t="n">
-        <v>30.85535963473767</v>
+        <v>31.80709999397346</v>
       </c>
       <c r="D5" t="n">
-        <v>32.64216500820667</v>
+        <v>33.23351928398065</v>
       </c>
     </row>
     <row r="6">
@@ -992,13 +922,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>32.81653842926026</v>
+        <v>29.42033615112305</v>
       </c>
       <c r="C6" t="n">
-        <v>31.62287626492976</v>
+        <v>28.29905362791119</v>
       </c>
       <c r="D6" t="n">
-        <v>34.01020059359075</v>
+        <v>30.5416186743349</v>
       </c>
     </row>
   </sheetData>
